--- a/tests/data/test_files/stm_most_popular_plans.xlsx
+++ b/tests/data/test_files/stm_most_popular_plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optum\hm-automation\tests\data\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D24F04-0E75-431C-B9D1-0709BBA4E916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5E9B66-5ABC-4DFC-99A7-56F3019AA79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E59AB3A4-B2E1-4FD6-A202-BD117C9D2742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E59AB3A4-B2E1-4FD6-A202-BD117C9D2742}"/>
   </bookViews>
   <sheets>
     <sheet name="STM Popular plans" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'STM Popular plans'!$A$1:$F$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Results'!$G$1:$G$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'STM Popular plans'!$A$1:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Results'!$H$1:$H$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="192">
   <si>
     <t>FIPS</t>
   </si>
@@ -525,6 +525,96 @@
   </si>
   <si>
     <t>AssertionError: "Most Popular" plan not found - Plan is present but different planID</t>
+  </si>
+  <si>
+    <t>Berrien</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalPlusElite_0_AZ</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalPlusElite_0_FL</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalHospitalSurgical_50_FL</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalCopay_20_FL</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalValue_30_GA</t>
+  </si>
+  <si>
+    <t>ALL_TriTermMedicalPlan80Max_20</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalPlusElite_0_IL</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalPlusEliteA_0_6m</t>
+  </si>
+  <si>
+    <t>1577_70_12m</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalPlus_20_IN</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalValue_30_IN</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalValue_30_6m</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalPlusElite_0_MI</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalValue_30_MN</t>
+  </si>
+  <si>
+    <t>ALL_TriTermMedicalHospitalSurgical_50</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalPlusElite_0_MO</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalHospitalSurgical_50_MO</t>
+  </si>
+  <si>
+    <t>ALL_TriTermMedicalCopaySelectMax_30</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalPlusElite_0_NE</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalCopay_20_NV</t>
+  </si>
+  <si>
+    <t>424_50_6m_PHCS</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalPlusElite_0_OH</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalPlusElite_0_OK</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalPlusEliteA_0_12m</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalValueSelectA_40_12m</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalValue_30_12m</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalValue_30_TX</t>
+  </si>
+  <si>
+    <t>All_ShortTermMedicalPlusElite_0_12m</t>
+  </si>
+  <si>
+    <t>PlanID</t>
   </si>
 </sst>
 </file>
@@ -1485,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B126BD7-6732-4E02-9E85-5975E0BE5B14}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,9 +1589,10 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -1520,155 +1611,172 @@
       <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
-        <v>18011</v>
-      </c>
-      <c r="B2">
-        <v>42077</v>
+      <c r="G1" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>33004</v>
+      </c>
+      <c r="B2" s="17">
+        <v>12011</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="6"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="18"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -1682,61 +1790,206 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="F50" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1746,11 +1999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C248C016-80C0-4B89-9687-8882F2E37C0B}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,11 +2013,12 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="108.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="108.42578125" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -1784,14 +2037,17 @@
       <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>85001</v>
       </c>
@@ -1808,11 +2064,14 @@
       <c r="F2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>85321</v>
       </c>
@@ -1829,16 +2088,19 @@
       <c r="F3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>33004</v>
       </c>
@@ -1855,12 +2117,15 @@
       <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="26"/>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>33002</v>
       </c>
@@ -1877,11 +2142,14 @@
       <c r="F5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>33401</v>
       </c>
@@ -1898,11 +2166,14 @@
       <c r="F6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>33710</v>
       </c>
@@ -1919,11 +2190,14 @@
       <c r="F7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>30004</v>
       </c>
@@ -1942,12 +2216,15 @@
       <c r="F8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>30003</v>
       </c>
@@ -1964,11 +2241,14 @@
       <c r="F9" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>60018</v>
       </c>
@@ -1985,11 +2265,14 @@
       <c r="F10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>60126</v>
       </c>
@@ -2008,11 +2291,14 @@
       <c r="F11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>46550</v>
       </c>
@@ -2026,19 +2312,22 @@
         <v>33</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="I12" s="26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>46040</v>
       </c>
@@ -2057,12 +2346,15 @@
       <c r="F13" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>46106</v>
       </c>
@@ -2081,12 +2373,15 @@
       <c r="F14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>46113</v>
       </c>
@@ -2100,19 +2395,22 @@
         <v>36</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H15" s="26" t="s">
+      <c r="G15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>46613</v>
       </c>
@@ -2129,11 +2427,14 @@
       <c r="F16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>49022</v>
       </c>
@@ -2147,19 +2448,22 @@
         <v>44</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="I17" s="26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>48070</v>
       </c>
@@ -2176,11 +2480,14 @@
       <c r="F18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>55311</v>
       </c>
@@ -2197,12 +2504,15 @@
       <c r="F19" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>38611</v>
       </c>
@@ -2221,12 +2531,15 @@
       <c r="F20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>64024</v>
       </c>
@@ -2245,12 +2558,15 @@
       <c r="F21" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>64002</v>
       </c>
@@ -2267,11 +2583,14 @@
       <c r="F22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>63301</v>
       </c>
@@ -2288,11 +2607,14 @@
       <c r="F23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>63005</v>
       </c>
@@ -2311,12 +2633,15 @@
       <c r="F24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>65614</v>
       </c>
@@ -2335,12 +2660,15 @@
       <c r="F25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>68007</v>
       </c>
@@ -2359,14 +2687,17 @@
       <c r="F26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="26" t="s">
+      <c r="G26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>68317</v>
       </c>
@@ -2385,14 +2716,17 @@
       <c r="F27" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" s="26" t="s">
+      <c r="G27" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>88901</v>
       </c>
@@ -2405,18 +2739,23 @@
       <c r="D28" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="F28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="I28" s="26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>3031</v>
       </c>
@@ -2433,14 +2772,17 @@
       <c r="F29" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="I29" s="26" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>44022</v>
       </c>
@@ -2459,14 +2801,17 @@
       <c r="F30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="26" t="s">
+      <c r="G30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>43003</v>
       </c>
@@ -2485,14 +2830,17 @@
       <c r="F31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H31" s="26" t="s">
+      <c r="G31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>43046</v>
       </c>
@@ -2511,12 +2859,15 @@
       <c r="F32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H32" s="26"/>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>43081</v>
       </c>
@@ -2535,11 +2886,14 @@
       <c r="F33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>44001</v>
       </c>
@@ -2556,11 +2910,14 @@
       <c r="F34" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>44212</v>
       </c>
@@ -2577,11 +2934,14 @@
       <c r="F35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>44601</v>
       </c>
@@ -2600,12 +2960,15 @@
       <c r="F36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="26"/>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>44301</v>
       </c>
@@ -2622,11 +2985,14 @@
       <c r="F37" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" t="s">
+        <v>184</v>
+      </c>
+      <c r="H37" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>44214</v>
       </c>
@@ -2645,11 +3011,14 @@
       <c r="F38" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>73019</v>
       </c>
@@ -2665,11 +3034,14 @@
       <c r="F39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" t="s">
+        <v>185</v>
+      </c>
+      <c r="H39" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>73003</v>
       </c>
@@ -2688,12 +3060,15 @@
       <c r="F40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H40" s="26"/>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>74008</v>
       </c>
@@ -2712,12 +3087,15 @@
       <c r="F41" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>15006</v>
       </c>
@@ -2733,12 +3111,15 @@
       <c r="F42" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>19301</v>
       </c>
@@ -2754,12 +3135,15 @@
       <c r="F43" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H43" s="22"/>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>18011</v>
       </c>
@@ -2778,12 +3162,15 @@
       <c r="F44" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" t="s">
+        <v>187</v>
+      </c>
+      <c r="H44" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>18001</v>
       </c>
@@ -2799,11 +3186,14 @@
       <c r="F45" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>15062</v>
       </c>
@@ -2819,12 +3209,15 @@
       <c r="F46" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="22"/>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>37011</v>
       </c>
@@ -2840,11 +3233,14 @@
       <c r="F47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" t="s">
+        <v>180</v>
+      </c>
+      <c r="H47" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>37721</v>
       </c>
@@ -2863,12 +3259,15 @@
       <c r="F48" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H48" s="26"/>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="26"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>77001</v>
       </c>
@@ -2884,12 +3283,15 @@
       <c r="F49" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" t="s">
+        <v>189</v>
+      </c>
+      <c r="H49" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="26"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>76009</v>
       </c>
@@ -2905,11 +3307,14 @@
       <c r="F50" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G50" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>76001</v>
       </c>
@@ -2925,11 +3330,14 @@
       <c r="F51" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G51" t="s">
+        <v>168</v>
+      </c>
+      <c r="H51" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>53005</v>
       </c>
@@ -2945,21 +3353,18 @@
       <c r="F52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="G52" t="s">
+        <v>190</v>
+      </c>
+      <c r="H52" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H52" s="26" t="s">
+      <c r="I52" s="26" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G52" xr:uid="{C248C016-80C0-4B89-9687-8882F2E37C0B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="FAILED"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="H1:H52" xr:uid="{C248C016-80C0-4B89-9687-8882F2E37C0B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12393,7 +12798,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12404,6 +12809,7 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -12425,6 +12831,9 @@
       <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="15" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
@@ -12443,6 +12852,9 @@
       <c r="F2" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="G2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
@@ -12461,7 +12873,9 @@
       <c r="F3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
@@ -12485,6 +12899,9 @@
       <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
@@ -12503,6 +12920,9 @@
       <c r="F5" s="14" t="s">
         <v>2</v>
       </c>
+      <c r="G5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
@@ -12521,6 +12941,9 @@
       <c r="F6" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="G6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
@@ -12539,6 +12962,9 @@
       <c r="F7" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="G7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
@@ -12559,6 +12985,9 @@
       <c r="F8" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="G8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
@@ -12577,6 +13006,9 @@
       <c r="F9" s="14" t="s">
         <v>117</v>
       </c>
+      <c r="G9" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
@@ -12595,6 +13027,9 @@
       <c r="F10" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="G10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -12615,6 +13050,9 @@
       <c r="F11" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="G11" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
@@ -12635,6 +13073,9 @@
       <c r="F12" s="12" t="s">
         <v>95</v>
       </c>
+      <c r="G12" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
@@ -12653,6 +13094,9 @@
       <c r="F13" s="14" t="s">
         <v>114</v>
       </c>
+      <c r="G13" s="13" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
@@ -12671,6 +13115,9 @@
       <c r="F14" s="14" t="s">
         <v>45</v>
       </c>
+      <c r="G14" s="13" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
@@ -12691,6 +13138,9 @@
       <c r="F15" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="G15" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
@@ -12709,8 +13159,11 @@
       <c r="F16" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>49022</v>
       </c>
@@ -12729,8 +13182,11 @@
       <c r="F17" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>48070</v>
       </c>
@@ -12747,8 +13203,11 @@
       <c r="F18" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>55311</v>
       </c>
@@ -12765,8 +13224,11 @@
       <c r="F19" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>38611</v>
       </c>
@@ -12783,8 +13245,11 @@
       <c r="F20" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>64024</v>
       </c>
@@ -12801,8 +13266,11 @@
       <c r="F21" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>65604</v>
       </c>
@@ -12821,8 +13289,11 @@
       <c r="F22" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>64002</v>
       </c>
@@ -12839,8 +13310,11 @@
       <c r="F23" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>63301</v>
       </c>
@@ -12857,8 +13331,11 @@
       <c r="F24" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>63005</v>
       </c>
@@ -12875,8 +13352,11 @@
       <c r="F25" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>65614</v>
       </c>
@@ -12893,8 +13373,11 @@
       <c r="F26" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>68007</v>
       </c>
@@ -12913,8 +13396,11 @@
       <c r="F27" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>68317</v>
       </c>
@@ -12933,8 +13419,11 @@
       <c r="F28" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>88901</v>
       </c>
@@ -12951,8 +13440,11 @@
       <c r="F29" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>3031</v>
       </c>
@@ -12969,8 +13461,11 @@
       <c r="F30" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>44022</v>
       </c>
@@ -12989,8 +13484,11 @@
       <c r="F31" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>43003</v>
       </c>
@@ -13009,8 +13507,11 @@
       <c r="F32" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>43046</v>
       </c>
@@ -13027,8 +13528,11 @@
       <c r="F33" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>43081</v>
       </c>
@@ -13047,8 +13551,11 @@
       <c r="F34" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>44001</v>
       </c>
@@ -13065,8 +13572,11 @@
       <c r="F35" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>44212</v>
       </c>
@@ -13083,8 +13593,11 @@
       <c r="F36" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>44601</v>
       </c>
@@ -13101,8 +13614,11 @@
       <c r="F37" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>44301</v>
       </c>
@@ -13119,8 +13635,11 @@
       <c r="F38" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>44214</v>
       </c>
@@ -13139,8 +13658,11 @@
       <c r="F39" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>73019</v>
       </c>
@@ -13156,8 +13678,11 @@
       <c r="F40" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>73003</v>
       </c>
@@ -13173,8 +13698,11 @@
       <c r="F41" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>74008</v>
       </c>
@@ -13190,8 +13718,11 @@
       <c r="F42" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>15006</v>
       </c>
@@ -13207,8 +13738,11 @@
       <c r="F43" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>19301</v>
       </c>
@@ -13224,8 +13758,11 @@
       <c r="F44" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>18011</v>
       </c>
@@ -13241,8 +13778,11 @@
       <c r="F45" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>18001</v>
       </c>
@@ -13258,8 +13798,11 @@
       <c r="F46" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>15062</v>
       </c>
@@ -13275,8 +13818,11 @@
       <c r="F47" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>37011</v>
       </c>
@@ -13292,8 +13838,11 @@
       <c r="F48" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>37721</v>
       </c>
@@ -13309,8 +13858,11 @@
       <c r="F49" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>77001</v>
       </c>
@@ -13326,8 +13878,11 @@
       <c r="F50" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>76009</v>
       </c>
@@ -13343,8 +13898,11 @@
       <c r="F51" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>76001</v>
       </c>
@@ -13360,8 +13918,11 @@
       <c r="F52" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>53005</v>
       </c>

--- a/tests/data/test_files/stm_most_popular_plans.xlsx
+++ b/tests/data/test_files/stm_most_popular_plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optum\hm-automation\tests\data\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5E9B66-5ABC-4DFC-99A7-56F3019AA79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D4A745-2291-4C51-B7BC-0D8B94F9207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E59AB3A4-B2E1-4FD6-A202-BD117C9D2742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E59AB3A4-B2E1-4FD6-A202-BD117C9D2742}"/>
   </bookViews>
   <sheets>
     <sheet name="STM Popular plans" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Results'!$H$1:$H$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1577,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B126BD7-6732-4E02-9E85-5975E0BE5B14}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1999,9 +2000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C248C016-80C0-4B89-9687-8882F2E37C0B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -2047,7 +2049,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>85001</v>
       </c>
@@ -2071,7 +2073,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>85321</v>
       </c>
@@ -2100,7 +2102,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>33004</v>
       </c>
@@ -2125,7 +2127,7 @@
       </c>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>33002</v>
       </c>
@@ -2149,7 +2151,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>33401</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>33710</v>
       </c>
@@ -2197,7 +2199,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>30004</v>
       </c>
@@ -2224,7 +2226,7 @@
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>30003</v>
       </c>
@@ -2248,7 +2250,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>60018</v>
       </c>
@@ -2272,7 +2274,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>60126</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>46040</v>
       </c>
@@ -2354,7 +2356,7 @@
       </c>
       <c r="I13" s="26"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>46106</v>
       </c>
@@ -2381,7 +2383,7 @@
       </c>
       <c r="I14" s="26"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>46113</v>
       </c>
@@ -2410,7 +2412,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>46613</v>
       </c>
@@ -2463,7 +2465,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>48070</v>
       </c>
@@ -2487,7 +2489,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>55311</v>
       </c>
@@ -2512,7 +2514,7 @@
       </c>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>38611</v>
       </c>
@@ -2539,7 +2541,7 @@
       </c>
       <c r="I20" s="26"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>64024</v>
       </c>
@@ -2566,7 +2568,7 @@
       </c>
       <c r="I21" s="26"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>64002</v>
       </c>
@@ -2590,7 +2592,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>63301</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>63005</v>
       </c>
@@ -2641,7 +2643,7 @@
       </c>
       <c r="I24" s="26"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>65614</v>
       </c>
@@ -2668,7 +2670,7 @@
       </c>
       <c r="I25" s="26"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>68007</v>
       </c>
@@ -2697,7 +2699,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>68317</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>44022</v>
       </c>
@@ -2811,7 +2813,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>43003</v>
       </c>
@@ -2840,7 +2842,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>43046</v>
       </c>
@@ -2867,7 +2869,7 @@
       </c>
       <c r="I32" s="26"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>43081</v>
       </c>
@@ -2893,7 +2895,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>44001</v>
       </c>
@@ -2917,7 +2919,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>44212</v>
       </c>
@@ -2941,7 +2943,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>44601</v>
       </c>
@@ -2968,7 +2970,7 @@
       </c>
       <c r="I36" s="26"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>44301</v>
       </c>
@@ -2992,7 +2994,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>44214</v>
       </c>
@@ -3018,7 +3020,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>73019</v>
       </c>
@@ -3041,7 +3043,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>73003</v>
       </c>
@@ -3068,7 +3070,7 @@
       </c>
       <c r="I40" s="26"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>74008</v>
       </c>
@@ -3095,7 +3097,7 @@
       </c>
       <c r="I41" s="26"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>15006</v>
       </c>
@@ -3119,7 +3121,7 @@
       </c>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>19301</v>
       </c>
@@ -3143,7 +3145,7 @@
       </c>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>18011</v>
       </c>
@@ -3170,7 +3172,7 @@
       </c>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>18001</v>
       </c>
@@ -3193,7 +3195,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>15062</v>
       </c>
@@ -3217,7 +3219,7 @@
       </c>
       <c r="I46" s="22"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>37011</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>37721</v>
       </c>
@@ -3267,7 +3269,7 @@
       </c>
       <c r="I48" s="26"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>77001</v>
       </c>
@@ -3291,7 +3293,7 @@
       </c>
       <c r="I49" s="26"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>76009</v>
       </c>
@@ -3314,7 +3316,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>76001</v>
       </c>
@@ -3364,7 +3366,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H52" xr:uid="{C248C016-80C0-4B89-9687-8882F2E37C0B}"/>
+  <autoFilter ref="H1:H52" xr:uid="{C248C016-80C0-4B89-9687-8882F2E37C0B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FAILED"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/tests/data/test_files/stm_most_popular_plans.xlsx
+++ b/tests/data/test_files/stm_most_popular_plans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optum\hm-automation\tests\data\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D4A745-2291-4C51-B7BC-0D8B94F9207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DFB0C3-B7BE-4A2F-9EF7-D0635BD40EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E59AB3A4-B2E1-4FD6-A202-BD117C9D2742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E59AB3A4-B2E1-4FD6-A202-BD117C9D2742}"/>
   </bookViews>
   <sheets>
     <sheet name="STM Popular plans" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Results'!$H$1:$H$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="191">
   <si>
     <t>FIPS</t>
   </si>
@@ -520,9 +519,6 @@
   </si>
   <si>
     <t>AssertionError: "Most Popular" plan not found - Plan not found</t>
-  </si>
-  <si>
-    <t>AssertionError: "Most Popular" plan not found - Plan is present but no popular ribbon</t>
   </si>
   <si>
     <t>AssertionError: "Most Popular" plan not found - Plan is present but different planID</t>
@@ -1578,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B126BD7-6732-4E02-9E85-5975E0BE5B14}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,28 +1609,30 @@
         <v>1</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>33004</v>
+        <v>30004</v>
       </c>
       <c r="B2" s="17">
-        <v>12011</v>
+        <v>13121</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2003,8 +2001,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>121</v>
@@ -2049,7 +2047,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>85001</v>
       </c>
@@ -2067,13 +2065,13 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>85321</v>
       </c>
@@ -2091,7 +2089,7 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>157</v>
@@ -2102,7 +2100,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>33004</v>
       </c>
@@ -2120,14 +2118,14 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>33002</v>
       </c>
@@ -2145,13 +2143,13 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>33401</v>
       </c>
@@ -2169,13 +2167,13 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>33710</v>
       </c>
@@ -2193,13 +2191,13 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>30004</v>
       </c>
@@ -2213,20 +2211,20 @@
         <v>20</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>30003</v>
       </c>
@@ -2244,13 +2242,13 @@
         <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>60018</v>
       </c>
@@ -2268,13 +2266,13 @@
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>60126</v>
       </c>
@@ -2288,19 +2286,19 @@
         <v>24</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>46550</v>
       </c>
@@ -2320,7 +2318,7 @@
         <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>156</v>
@@ -2329,7 +2327,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>46040</v>
       </c>
@@ -2349,14 +2347,14 @@
         <v>114</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I13" s="26"/>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>46106</v>
       </c>
@@ -2376,14 +2374,14 @@
         <v>45</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H14" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I14" s="26"/>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>46113</v>
       </c>
@@ -2397,22 +2395,20 @@
         <v>36</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>46613</v>
       </c>
@@ -2430,13 +2426,13 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>49022</v>
       </c>
@@ -2450,13 +2446,13 @@
         <v>44</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>116</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>156</v>
@@ -2465,7 +2461,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>48070</v>
       </c>
@@ -2483,13 +2479,13 @@
         <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>55311</v>
       </c>
@@ -2507,14 +2503,14 @@
         <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H19" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>38611</v>
       </c>
@@ -2534,14 +2530,14 @@
         <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H20" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I20" s="26"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>64024</v>
       </c>
@@ -2561,14 +2557,14 @@
         <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I21" s="26"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>64002</v>
       </c>
@@ -2586,13 +2582,13 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H22" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>63301</v>
       </c>
@@ -2610,13 +2606,13 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H23" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>63005</v>
       </c>
@@ -2636,14 +2632,14 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H24" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I24" s="26"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>65614</v>
       </c>
@@ -2663,14 +2659,14 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I25" s="26"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>68007</v>
       </c>
@@ -2684,22 +2680,20 @@
         <v>53</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H26" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="I26" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>68317</v>
       </c>
@@ -2713,22 +2707,20 @@
         <v>56</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="I27" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>88901</v>
       </c>
@@ -2748,7 +2740,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>156</v>
@@ -2757,7 +2749,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>3031</v>
       </c>
@@ -2775,16 +2767,16 @@
         <v>118</v>
       </c>
       <c r="G29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>156</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>44022</v>
       </c>
@@ -2798,22 +2790,20 @@
         <v>63</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H30" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="I30" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>43003</v>
       </c>
@@ -2827,22 +2817,20 @@
         <v>65</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H31" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="I31" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>43046</v>
       </c>
@@ -2862,14 +2850,14 @@
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H32" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I32" s="26"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>43081</v>
       </c>
@@ -2883,19 +2871,19 @@
         <v>68</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H33" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>44001</v>
       </c>
@@ -2913,13 +2901,13 @@
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H34" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>44212</v>
       </c>
@@ -2937,13 +2925,13 @@
         <v>28</v>
       </c>
       <c r="G35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H35" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>44601</v>
       </c>
@@ -2963,14 +2951,14 @@
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H36" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I36" s="26"/>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>44301</v>
       </c>
@@ -2988,13 +2976,13 @@
         <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H37" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>44214</v>
       </c>
@@ -3008,19 +2996,19 @@
         <v>80</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H38" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>73019</v>
       </c>
@@ -3037,13 +3025,13 @@
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H39" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>73003</v>
       </c>
@@ -3063,14 +3051,14 @@
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H40" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I40" s="26"/>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>74008</v>
       </c>
@@ -3090,14 +3078,14 @@
         <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H41" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I41" s="26"/>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>15006</v>
       </c>
@@ -3114,14 +3102,14 @@
         <v>113</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H42" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>19301</v>
       </c>
@@ -3138,14 +3126,14 @@
         <v>113</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H43" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>18011</v>
       </c>
@@ -3165,14 +3153,14 @@
         <v>119</v>
       </c>
       <c r="G44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H44" s="29" t="s">
         <v>157</v>
       </c>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>18001</v>
       </c>
@@ -3189,13 +3177,13 @@
         <v>119</v>
       </c>
       <c r="G45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H45" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>15062</v>
       </c>
@@ -3212,14 +3200,14 @@
         <v>113</v>
       </c>
       <c r="G46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H46" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I46" s="22"/>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>37011</v>
       </c>
@@ -3236,13 +3224,13 @@
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H47" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>37721</v>
       </c>
@@ -3262,14 +3250,14 @@
         <v>116</v>
       </c>
       <c r="G48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H48" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I48" s="26"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>77001</v>
       </c>
@@ -3286,14 +3274,14 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H49" s="27" t="s">
         <v>157</v>
       </c>
       <c r="I49" s="26"/>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>76009</v>
       </c>
@@ -3310,13 +3298,13 @@
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H50" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>76001</v>
       </c>
@@ -3333,13 +3321,13 @@
         <v>117</v>
       </c>
       <c r="G51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H51" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>53005</v>
       </c>
@@ -3356,7 +3344,7 @@
         <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H52" s="21" t="s">
         <v>156</v>
@@ -3369,7 +3357,7 @@
   <autoFilter ref="H1:H52" xr:uid="{C248C016-80C0-4B89-9687-8882F2E37C0B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="FAILED"/>
+        <filter val="PASSED"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -12840,7 +12828,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -12861,7 +12849,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -12882,7 +12870,7 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -12908,7 +12896,7 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -12929,7 +12917,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -12950,7 +12938,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -12971,7 +12959,7 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -12994,7 +12982,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -13015,7 +13003,7 @@
         <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -13036,7 +13024,7 @@
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -13059,7 +13047,7 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -13082,7 +13070,7 @@
         <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -13103,7 +13091,7 @@
         <v>114</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -13124,7 +13112,7 @@
         <v>45</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -13147,7 +13135,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -13168,7 +13156,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13191,7 +13179,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -13212,7 +13200,7 @@
         <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13233,7 +13221,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13254,7 +13242,7 @@
         <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13275,7 +13263,7 @@
         <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -13298,7 +13286,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -13319,7 +13307,7 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -13340,7 +13328,7 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -13361,7 +13349,7 @@
         <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -13382,7 +13370,7 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -13405,7 +13393,7 @@
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -13428,7 +13416,7 @@
         <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -13449,7 +13437,7 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -13470,7 +13458,7 @@
         <v>118</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -13493,7 +13481,7 @@
         <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -13516,7 +13504,7 @@
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -13537,7 +13525,7 @@
         <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -13560,7 +13548,7 @@
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -13581,7 +13569,7 @@
         <v>28</v>
       </c>
       <c r="G35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -13602,7 +13590,7 @@
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -13623,7 +13611,7 @@
         <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -13644,7 +13632,7 @@
         <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -13667,7 +13655,7 @@
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -13687,7 +13675,7 @@
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -13707,7 +13695,7 @@
         <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -13727,7 +13715,7 @@
         <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -13747,7 +13735,7 @@
         <v>95</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -13767,7 +13755,7 @@
         <v>95</v>
       </c>
       <c r="G44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -13787,7 +13775,7 @@
         <v>119</v>
       </c>
       <c r="G45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -13807,7 +13795,7 @@
         <v>119</v>
       </c>
       <c r="G46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -13827,7 +13815,7 @@
         <v>95</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -13847,7 +13835,7 @@
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -13867,7 +13855,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -13887,7 +13875,7 @@
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -13907,7 +13895,7 @@
         <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -13927,7 +13915,7 @@
         <v>117</v>
       </c>
       <c r="G52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
